--- a/data/long_dif/P24_2-Estudios-long_dif.xlsx
+++ b/data/long_dif/P24_2-Estudios-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>11,96%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>16,77%</t>
+          <t>12,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,53%</t>
+          <t>12,48%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17,6%</t>
+          <t>12,54%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,13%</t>
+          <t>18,06%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>19,94%</t>
+          <t>10,78%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>13,08%</t>
+          <t>20,81%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>15,3%</t>
+          <t>13,91%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>16,59%</t>
+          <t>15,23%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>11,32%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>16,98%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>13,31%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,67; 12,78</t>
+          <t>6,53; 19,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,19; 37,75</t>
+          <t>6,8; 19,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,28; 17,66</t>
+          <t>8,52; 17,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,77; 23,44</t>
+          <t>6,88; 19,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,29; 21,07</t>
+          <t>11,91; 27,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,57; 24,68</t>
+          <t>5,9; 17,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,86; 17,24</t>
+          <t>15,86; 26,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,81; 25,1</t>
+          <t>8,91; 20,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,46; 20,4</t>
+          <t>10,04; 21,05</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>7,52; 16,38</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>13,77; 20,93</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>9,41; 18,1</t>
         </is>
       </c>
     </row>
@@ -733,52 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>78,5%</t>
+          <t>73,43%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>68,38%</t>
+          <t>69,83%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>73,39%</t>
+          <t>73,08%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>67,5%</t>
+          <t>74,68%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>65,29%</t>
+          <t>66,94%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>63,93%</t>
+          <t>66,19%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>72,58%</t>
+          <t>62,48%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>66,66%</t>
+          <t>67,3%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>68,21%</t>
+          <t>69,95%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>67,79%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>67,36%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>70,54%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>65,33; 85,36</t>
+          <t>62,43; 83,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>53,01; 77,64</t>
+          <t>60,35; 79,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>67,27; 80,11</t>
+          <t>66,5; 79,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>59,85; 74,06</t>
+          <t>65,65; 83,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>57,28; 72,45</t>
+          <t>57,21; 75,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>58,15; 70,43</t>
+          <t>58,14; 74,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>66,17; 77,45</t>
+          <t>55,4; 68,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>58,9; 72,39</t>
+          <t>58,35; 75,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>63,86; 72,97</t>
+          <t>63,22; 76,78</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>61,16; 74,53</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>62,65; 71,83</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>64,04; 77,88</t>
         </is>
       </c>
     </row>
@@ -839,52 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,69%</t>
+          <t>14,61%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>14,86%</t>
+          <t>18,17%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,09%</t>
+          <t>14,44%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,9%</t>
+          <t>12,77%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>20,58%</t>
+          <t>15,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>16,13%</t>
+          <t>23,03%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>14,34%</t>
+          <t>16,71%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>18,05%</t>
+          <t>18,79%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>15,21%</t>
+          <t>14,82%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>20,88%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>15,66%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>16,14%</t>
         </is>
       </c>
     </row>
@@ -897,104 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,57; 28,04</t>
+          <t>7,6; 23,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,6; 21,24</t>
+          <t>11,24; 25,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,5; 19,25</t>
+          <t>9,78; 19,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,35; 21,31</t>
+          <t>6,92; 19,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,03; 27,32</t>
+          <t>9,68; 22,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,48; 20,7</t>
+          <t>16,4; 31,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,37; 21,26</t>
+          <t>12,45; 21,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,07; 22,59</t>
+          <t>12,98; 28,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,08; 18,59</t>
+          <t>10,14; 20,65</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>15,98; 27,16</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>12,24; 19,28</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>10,84; 21,98</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,11%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>20,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,1%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>15,33%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,54%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>12,6%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>16,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>19,81%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,92; 17,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,84; 22,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,96; 25,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,62; 15,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,2; 19,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,28; 23,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,51; 15,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,69; 20,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,14; 23,1</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>69,52%</t>
+          <t>15,86%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>61,08%</t>
+          <t>17,67%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>63,93%</t>
+          <t>19,14%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>68,65%</t>
+          <t>15,1%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>65,95%</t>
+          <t>12,31%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>61,31%</t>
+          <t>15,34%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>69,08%</t>
+          <t>19,44%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>63,49%</t>
+          <t>15,34%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>62,66%</t>
+          <t>14,02%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>16,49%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>19,28%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>15,21%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>63,46; 74,87</t>
+          <t>11,29; 24,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>54,57; 66,32</t>
+          <t>11,86; 26,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>58,49; 68,81</t>
+          <t>15,31; 23,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>64,37; 72,89</t>
+          <t>11,02; 19,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>60,87; 70,44</t>
+          <t>9,07; 16,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>56,83; 65,71</t>
+          <t>12,24; 19,53</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>64,77; 72,31</t>
+          <t>16,2; 23,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>60,06; 67,23</t>
+          <t>12,09; 19,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>59,29; 66,03</t>
+          <t>11,07; 18,14</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>13,07; 21,12</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>16,48; 22,31</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>12,36; 18,19</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>17,37%</t>
+          <t>66,96%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>21,69%</t>
+          <t>60,08%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>16,0%</t>
+          <t>64,11%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>19,24%</t>
+          <t>66,35%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>18,72%</t>
+          <t>66,62%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>19,15%</t>
+          <t>63,64%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>18,31%</t>
+          <t>61,16%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>20,22%</t>
+          <t>59,39%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>17,53%</t>
+          <t>66,78%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>61,88%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>62,68%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>63,0%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,23; 24,58</t>
+          <t>57,17; 73,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>17,93; 28,59</t>
+          <t>52,22; 67,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>12,61; 19,46</t>
+          <t>58,71; 68,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,65; 23,29</t>
+          <t>58,21; 72,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>14,95; 23,41</t>
+          <t>60,74; 72,01</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>15,56; 22,36</t>
+          <t>58,3; 68,79</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>15,93; 22,19</t>
+          <t>56,88; 65,62</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>17,25; 23,82</t>
+          <t>54,37; 64,77</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>15,32; 19,92</t>
+          <t>61,63; 71,27</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>57,46; 66,21</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>59,2; 65,96</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>57,64; 66,55</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>17,18%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>16,05%</t>
+          <t>22,25%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>20,44%</t>
+          <t>16,75%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>15,54%</t>
+          <t>18,55%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>15,08%</t>
+          <t>21,08%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>22,88%</t>
+          <t>21,02%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>13,09%</t>
+          <t>19,4%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>15,56%</t>
+          <t>25,27%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>21,7%</t>
+          <t>19,2%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>21,63%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>18,04%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>21,79%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,35; 14,54</t>
+          <t>11,62; 28,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,38; 21,16</t>
+          <t>17,16; 30,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>16,42; 24,89</t>
+          <t>13,74; 20,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,23; 19,92</t>
+          <t>13,6; 27,31</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>11,67; 19,44</t>
+          <t>16,66; 26,5</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>19,19; 27,09</t>
+          <t>16,87; 26,49</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,54; 16,05</t>
+          <t>15,83; 23,27</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>12,79; 18,68</t>
+          <t>20,81; 29,89</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>19,01; 24,54</t>
+          <t>15,27; 24,18</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>18,39; 25,63</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>15,63; 20,8</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>18,51; 26,68</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>70,42%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>63,72%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>64,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>61,72%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>60,09%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>58,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>66,0%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>61,87%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>61,18%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1435,100 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>63,48; 75,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>57,77; 69,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>58,99; 69,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>56,32; 67,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>55,01; 65,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>53,19; 62,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>62,02; 70,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>57,79; 65,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>57,63; 64,57</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>19,03%</t>
+          <t>10,22%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>20,24%</t>
+          <t>16,07%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>15,28%</t>
+          <t>20,62%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>22,74%</t>
+          <t>15,35%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>24,83%</t>
+          <t>15,1%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>18,82%</t>
+          <t>16,47%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>20,92%</t>
+          <t>23,05%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>22,57%</t>
+          <t>21,34%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>17,12%</t>
+          <t>12,83%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>16,27%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>21,87%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>18,45%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>14,65; 25,55</t>
+          <t>6,39; 15,2</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>15,51; 25,49</t>
+          <t>11,89; 21,36</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>11,63; 19,44</t>
+          <t>16,22; 25,22</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>18,28; 27,33</t>
+          <t>11,29; 20,26</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>20,74; 29,65</t>
+          <t>10,73; 20,52</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>15,52; 22,37</t>
+          <t>12,7; 21,09</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>17,38; 24,82</t>
+          <t>19,4; 27,13</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>19,69; 25,95</t>
+          <t>16,97; 25,76</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>14,39; 19,88</t>
+          <t>10,1; 16,76</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>13,33; 19,37</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>18,86; 24,96</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>15,41; 21,84</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>11,27%</t>
+          <t>69,66%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>16,76%</t>
+          <t>63,34%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>18,59%</t>
+          <t>63,93%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>14,35%</t>
+          <t>64,17%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>14,97%</t>
+          <t>59,74%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>20,7%</t>
+          <t>58,43%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
+          <t>58,13%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>15,84%</t>
+          <t>53,37%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>19,67%</t>
+          <t>64,34%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>60,82%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>60,94%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>58,58%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>9,22; 13,84</t>
+          <t>62,94; 76,47</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>13,84; 21,58</t>
+          <t>56,78; 69,5</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>16,02; 21,8</t>
+          <t>58,38; 69,01</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>12,33; 16,9</t>
+          <t>57,89; 70,82</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>12,69; 17,54</t>
+          <t>53,2; 65,84</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>18,48; 23,15</t>
+          <t>52,79; 64,37</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>11,34; 14,32</t>
+          <t>53,4; 62,37</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>13,78; 18,33</t>
+          <t>48,16; 58,82</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>17,79; 21,48</t>
+          <t>59,05; 68,75</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>56,8; 65,11</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>57,62; 64,37</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>54,48; 63,17</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>71,62%</t>
+          <t>20,12%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>63,34%</t>
+          <t>20,59%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>66,04%</t>
+          <t>15,45%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>66,38%</t>
+          <t>20,47%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>63,94%</t>
+          <t>25,17%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>60,99%</t>
+          <t>25,1%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>68,94%</t>
+          <t>18,82%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>63,65%</t>
+          <t>25,29%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>63,46%</t>
+          <t>22,82%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>22,91%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>17,19%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>22,97%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>67,65; 74,98</t>
+          <t>15,36; 26,45</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>58,8; 67,11</t>
+          <t>15,57; 26,09</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>62,92; 69,39</t>
+          <t>11,67; 19,47</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>63,04; 69,18</t>
+          <t>15,37; 26,31</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>60,78; 67,02</t>
+          <t>19,92; 30,79</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>57,84; 63,7</t>
+          <t>20,33; 30,12</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>66,38; 71,27</t>
+          <t>14,99; 22,87</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>60,93; 66,12</t>
+          <t>20,43; 30,49</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>61,1; 65,62</t>
+          <t>19,38; 27,17</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>19,26; 26,31</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>14,58; 20,01</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>19,31; 27,18</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>17,11%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>19,9%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>15,37%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>19,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>21,08%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>18,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>18,21%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>20,51%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>16,87%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1863,60 +2228,1179 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>14,1; 21,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>17,08; 23,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>13,1; 17,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>16,92; 21,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>18,55; 23,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>16,24; 20,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>16,29; 20,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>18,48; 22,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>15,39; 18,58</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>9,39%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>21,19%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>14,74%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>15,5%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>11,98%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>18,5%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>6,87; 12,95</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>14,12; 34,63</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>11,51; 18,48</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>10,51; 21,68</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>9,74; 14,42</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>13,99; 26,08</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>72,74%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>63,76%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>70,25%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>69,15%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>71,54%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>66,31%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>65,82; 78,21</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>52,82; 72,27</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>65,97; 74,94</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>61,31; 76,24</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>67,28; 75,2</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>59,09; 71,78</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>17,87%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>15,05%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>15,01%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>15,35%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>16,49%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>15,19%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>12,89; 25,23</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>9,72; 22,07</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>11,88; 18,76</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>9,92; 21,69</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>13,26; 20,66</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>11,67; 19,83</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>11,68%</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>17,18%</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>18,22%</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>14,69%</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>14,48%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>14,94%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>20,94%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>17,09%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>13,11%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>16,04%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>19,6%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>15,92%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>9,58; 14,59</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>13,97; 21,07</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>15,64; 21,12</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>12,11; 17,76</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>12,38; 16,73</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>12,63; 17,41</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>18,63; 23,53</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>14,41; 19,85</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>11,62; 14,86</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>14,02; 18,52</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>17,86; 21,58</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>14,13; 17,92</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>70,55%</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>63,03%</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>65,92%</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>67,23%</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>66,52%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>63,56%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>60,49%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>59,17%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>68,49%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>63,3%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>63,16%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>63,11%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>66,1; 74,09</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>58,5; 67,17</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>62,61; 69,12</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>62,35; 71,52</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>63,67; 69,4</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>60,47; 66,53</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>57,68; 63,42</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>55,74; 62,81</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>66,08; 70,8</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>60,37; 65,9</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>61,06; 65,35</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>60,25; 65,94</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>17,77%</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>19,79%</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>15,86%</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>18,08%</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>19,01%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>21,5%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>18,58%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>23,74%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>18,4%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>20,66%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>17,24%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>20,97%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>14,64; 22,21</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>17,05; 23,6</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>13,6; 18,25</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>14,83; 22,9</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>16,62; 21,52</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>18,87; 24,31</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>16,53; 21,12</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>20,54; 27,19</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>16,38; 20,84</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>18,55; 22,85</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>15,58; 18,91</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>18,78; 23,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="9">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
